--- a/pred_ohlcv/54_21/2020-01-22 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 ZRX ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>2341.81505570947</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2343.81505570947</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-27672.98494429053</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-70584.48804429053</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-69638.59364429052</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-69664.00364429053</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-69662.98494429053</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-67359.97574429052</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-67359.97574429052</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-66983.41734429053</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-69283.36904429054</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-69224.45874429053</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-59471.61464429053</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-59534.69444429053</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-59534.69444429053</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-59545.53994429053</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-58859.63914429053</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-58862.04324429053</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-58730.04324429053</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-58727.94324429053</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-58730.04324429053</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-58734.44734429053</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-56819.30414429053</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-56906.80294429053</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-56906.80294429053</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-57528.36824429053</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-57165.00594429053</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-53800.58624429053</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-57662.63034429054</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-57294.77624429054</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-57288.65064429054</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-62505.28984429054</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-62505.28984429054</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-60712.32034429054</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-60712.32034429054</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-54027.85384429055</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-52325.84144429055</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-44762.11814429055</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-43459.19734429055</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-42860.34733913629</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-46113.13973913628</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-46313.13973913628</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-46313.13973913628</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-42222.58553913629</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-39728.29583913628</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-40098.32333913628</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-40098.32333913628</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-42796.00053913628</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-42796.00053913628</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-22 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 ZRX ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>2341.81505570947</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2343.81505570947</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2327.01505570947</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-27672.98494429053</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-58862.04324429053</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-58730.04324429053</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-58727.94324429053</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-58730.04324429053</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-58734.44734429053</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-56819.30414429053</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-56906.80294429053</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-56906.80294429053</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-57528.36824429053</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-57165.00594429053</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-53800.58624429053</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-57662.63034429054</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-57294.77624429054</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-57288.65064429054</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-62505.28984429054</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-62505.28984429054</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-60712.32034429054</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-60712.32034429054</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-60232.01014429054</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-61595.89074429054</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-54027.85384429055</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-52325.84144429055</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-44498.65754429055</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-44370.70124429055</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-44762.11814429055</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-43459.19734429055</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-42860.34733913629</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-46113.13973913628</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-46313.13973913628</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-46313.13973913628</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-39728.29583913628</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-40098.32333913628</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-40098.32333913628</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-42796.00053913628</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-42796.00053913628</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
